--- a/Solution_1/1_Etude/Calcule_temps_batterie.xlsx
+++ b/Solution_1/1_Etude/Calcule_temps_batterie.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -18,10 +18,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Quoi ?</t>
+  </si>
+  <si>
+    <t>Combien ? (mA)</t>
+  </si>
+  <si>
+    <t>MTK3339 chipset (usage)</t>
+  </si>
+  <si>
+    <t>MPU-9250 - Accelerometer (p6)</t>
+  </si>
+  <si>
+    <t>SMART SAM D21 (p942)</t>
+  </si>
+  <si>
+    <t>Accéléromètre</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Micro</t>
+  </si>
+  <si>
+    <t>Régulateur</t>
+  </si>
+  <si>
+    <t>AP2112</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,12 +88,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +427,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>